--- a/reports/fulfillment_requests_line_item/templates/xlsx/template.xlsx
+++ b/reports/fulfillment_requests_line_item/templates/xlsx/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc1/Documents/Connect/connect-cli/cnctcli/reports/connect-reports/reports/fulfillment_requests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem/Documents/GitHub/connect-reports/reports/fulfillment_requests_with_params/templates/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5647451-DA08-964B-975C-B87F08E07227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A739BC-B4A3-7447-9AB5-6E3D26B896D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36260" yWindow="500" windowWidth="35840" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="32580" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -34,27 +34,6 @@
     <t>Exported At</t>
   </si>
   <si>
-    <t>Item ID</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Item Type</t>
-  </si>
-  <si>
-    <t>Item Unit Of measure</t>
-  </si>
-  <si>
-    <t>Item MPN</t>
-  </si>
-  <si>
-    <t>Item Period</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Customer ID</t>
   </si>
   <si>
@@ -122,6 +101,27 @@
   </si>
   <si>
     <t>Updated At</t>
+  </si>
+  <si>
+    <t>Parameter ID</t>
+  </si>
+  <si>
+    <t>Parameter Name</t>
+  </si>
+  <si>
+    <t>Parameter Type</t>
+  </si>
+  <si>
+    <t>Parameter Title</t>
+  </si>
+  <si>
+    <t>Parameter Description</t>
+  </si>
+  <si>
+    <t>Parameter Phase</t>
+  </si>
+  <si>
+    <t>Parameter Value</t>
   </si>
 </sst>
 </file>
@@ -517,97 +517,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
